--- a/Regresi Final.xlsx
+++ b/Regresi Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\CalibOmni2\sena2024_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA109A4F-C6F0-4B69-A81D-D031E9B192E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F845F-BDBB-436C-A3AD-4F89A7E1AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A0025BA-1BB6-471B-87C1-5F20766054B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Real</t>
   </si>
@@ -50,10 +50,13 @@
     <t>% error</t>
   </si>
   <si>
-    <t>y = 100.00905x + 1.46</t>
+    <t>Regresi</t>
   </si>
   <si>
-    <t>Regresi</t>
+    <t>y = 100.0091x + 0.679</t>
+  </si>
+  <si>
+    <t>mean error</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -223,34 +226,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>101</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,22 +1081,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>458146</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>106893</xdr:rowOff>
+      <xdr:colOff>163709</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>68788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2217350A-C0B2-BB91-54EE-C6221637CC56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7B08E1-E8A0-766F-126D-FD2F69D1B40B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,8 +1112,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="3322320"/>
-          <a:ext cx="10920406" cy="2453853"/>
+          <a:off x="274320" y="3505200"/>
+          <a:ext cx="10845372" cy="2415748"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,15 +1424,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75AFBC-EC31-4A7C-BA3B-6196784A9209}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1452,197 +1455,204 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
       </c>
       <c r="C2" s="1">
-        <v>32.5</v>
+        <v>32.19</v>
       </c>
       <c r="D2" s="3">
         <f>B2-C2</f>
-        <v>-2.5</v>
+        <v>-2.1899999999999977</v>
       </c>
       <c r="E2" s="1">
         <f>D2/B2*100</f>
-        <v>-8.3333333333333321</v>
+        <v>-7.2999999999999927</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
       </c>
       <c r="C3" s="1">
-        <v>53.19</v>
+        <v>53.24</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">B3-C3</f>
-        <v>6.8100000000000023</v>
+        <v>6.759999999999998</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E11" si="1">D3/B3*100</f>
-        <v>11.350000000000003</v>
+        <v>11.266666666666664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1">
         <v>90</v>
       </c>
       <c r="C4" s="1">
-        <v>87.71</v>
+        <v>88.04</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>2.2900000000000063</v>
+        <v>1.9599999999999937</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>2.5444444444444514</v>
+        <v>2.1777777777777709</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1">
         <v>120</v>
       </c>
       <c r="C5" s="1">
-        <v>125</v>
+        <v>123.12</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-3.1200000000000045</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>-4.1666666666666661</v>
+        <v>-2.6000000000000036</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
       </c>
       <c r="C6" s="1">
-        <v>157.19999999999999</v>
+        <v>158.32</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>-7.1999999999999886</v>
+        <v>-8.3199999999999932</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="1"/>
-        <v>-4.7999999999999927</v>
+        <v>-5.5466666666666624</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1">
         <v>180</v>
       </c>
       <c r="C7" s="1">
-        <v>185.72</v>
+        <v>187.23</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>-5.7199999999999989</v>
+        <v>-7.2299999999999898</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>-3.1777777777777771</v>
+        <v>-4.0166666666666604</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1">
         <v>210</v>
       </c>
       <c r="C8" s="1">
-        <v>210.46</v>
+        <v>212.32</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-0.46000000000000796</v>
+        <v>-2.3199999999999932</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>-0.21904761904762282</v>
+        <v>-1.1047619047619015</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="B9" s="1">
         <v>240</v>
       </c>
       <c r="C9" s="1">
-        <v>238.49</v>
+        <v>240.77</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>1.5099999999999909</v>
+        <v>-0.77000000000001023</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>0.62916666666666288</v>
+        <v>-0.32083333333333758</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1">
         <v>270</v>
       </c>
       <c r="C10" s="1">
-        <v>270.26</v>
+        <v>267.38</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>-0.25999999999999091</v>
+        <v>2.6200000000000045</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>-9.6296296296292924E-2</v>
+        <v>0.9703703703703721</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1">
         <v>300</v>
       </c>
       <c r="C11" s="1">
-        <v>287.69</v>
+        <v>284.73</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>12.310000000000002</v>
+        <v>15.269999999999982</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>4.1033333333333335</v>
+        <v>5.0899999999999936</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE(E2:E11)</f>
+        <v>-0.13841137566137585</v>
       </c>
     </row>
   </sheetData>

--- a/Regresi Final.xlsx
+++ b/Regresi Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\CalibOmni2\sena2024_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F845F-BDBB-436C-A3AD-4F89A7E1AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96D451-C97E-4ED2-B51F-BCF7F69165AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2A0025BA-1BB6-471B-87C1-5F20766054B8}"/>
   </bookViews>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED75AFBC-EC31-4A7C-BA3B-6196784A9209}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
